--- a/wangdian_subfolder/tomato_final_version.xlsx
+++ b/wangdian_subfolder/tomato_final_version.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="740" windowWidth="24560" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="-3060" yWindow="1280" windowWidth="24560" windowHeight="12700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tomato_final_version.csv" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="167">
   <si>
     <t>8.2/10</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>4.0/5</t>
+  </si>
+  <si>
+    <t>The Hunger Games: Catching Fire</t>
   </si>
 </sst>
 </file>
@@ -850,11 +853,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="43.33203125" customWidth="1"/>
+    <col min="10" max="10" width="58.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1464,7 +1471,7 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>36</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">

--- a/wangdian_subfolder/tomato_final_version.xlsx
+++ b/wangdian_subfolder/tomato_final_version.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3060" yWindow="1280" windowWidth="24560" windowHeight="12700" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="1240" windowWidth="24560" windowHeight="12700" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tomato_final_version.csv" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="168">
   <si>
     <t>8.2/10</t>
   </si>
@@ -467,21 +467,6 @@
     <t>Sing</t>
   </si>
   <si>
-    <t>cretic(%)</t>
-  </si>
-  <si>
-    <t>cretic_count</t>
-  </si>
-  <si>
-    <t>cretic_fresh</t>
-  </si>
-  <si>
-    <t>cretic_rate</t>
-  </si>
-  <si>
-    <t>cretic_rot</t>
-  </si>
-  <si>
     <t>user(%)</t>
   </si>
   <si>
@@ -525,6 +510,24 @@
   </si>
   <si>
     <t>The Hunger Games: Catching Fire</t>
+  </si>
+  <si>
+    <t>critic(%)</t>
+  </si>
+  <si>
+    <t>critic_count</t>
+  </si>
+  <si>
+    <t>critic_fresh</t>
+  </si>
+  <si>
+    <t>critic_rate</t>
+  </si>
+  <si>
+    <t>critic_rot</t>
+  </si>
+  <si>
+    <t>Released</t>
   </si>
 </sst>
 </file>
@@ -853,43 +856,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="43.33203125" customWidth="1"/>
-    <col min="10" max="10" width="58.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" t="s">
-        <v>154</v>
-      </c>
-      <c r="I1" t="s">
-        <v>155</v>
+      <c r="J1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -920,6 +925,9 @@
       <c r="I2" t="s">
         <v>2</v>
       </c>
+      <c r="J2">
+        <v>2015</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
@@ -951,6 +959,9 @@
       <c r="I3" t="s">
         <v>5</v>
       </c>
+      <c r="J3">
+        <v>2009</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -980,6 +991,9 @@
       <c r="I4" t="s">
         <v>6</v>
       </c>
+      <c r="J4">
+        <v>2018</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1009,6 +1023,9 @@
       <c r="I5" t="s">
         <v>9</v>
       </c>
+      <c r="J5">
+        <v>2018</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1021,7 +1038,7 @@
         <v>163</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E6">
         <v>21</v>
@@ -1037,6 +1054,9 @@
       </c>
       <c r="I6" t="s">
         <v>11</v>
+      </c>
+      <c r="J6">
+        <v>1997</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -1067,6 +1087,9 @@
       <c r="I7" t="s">
         <v>14</v>
       </c>
+      <c r="J7">
+        <v>2015</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1079,7 +1102,7 @@
         <v>313</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E8">
         <v>27</v>
@@ -1095,6 +1118,9 @@
       </c>
       <c r="I8" t="s">
         <v>16</v>
+      </c>
+      <c r="J8">
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -1125,6 +1151,9 @@
       <c r="I9" t="s">
         <v>19</v>
       </c>
+      <c r="J9">
+        <v>2017</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1154,6 +1183,9 @@
       <c r="I10" t="s">
         <v>22</v>
       </c>
+      <c r="J10">
+        <v>2018</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1183,6 +1215,9 @@
       <c r="I11" t="s">
         <v>24</v>
       </c>
+      <c r="J11">
+        <v>2008</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1212,6 +1247,9 @@
       <c r="I12" t="s">
         <v>25</v>
       </c>
+      <c r="J12">
+        <v>2016</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1236,10 +1274,13 @@
         <v>85666</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I13" t="s">
         <v>26</v>
+      </c>
+      <c r="J13">
+        <v>2017</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1270,6 +1311,9 @@
       <c r="I14" t="s">
         <v>28</v>
       </c>
+      <c r="J14">
+        <v>2016</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1282,7 +1326,7 @@
         <v>119</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E15">
         <v>101</v>
@@ -1298,6 +1342,9 @@
       </c>
       <c r="I15" t="s">
         <v>29</v>
+      </c>
+      <c r="J15">
+        <v>1999</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1328,8 +1375,11 @@
       <c r="I16" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>75</v>
       </c>
@@ -1352,13 +1402,16 @@
         <v>286305</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>87</v>
       </c>
@@ -1369,7 +1422,7 @@
         <v>304</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E18">
         <v>47</v>
@@ -1386,8 +1439,11 @@
       <c r="I18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>89</v>
       </c>
@@ -1415,8 +1471,11 @@
       <c r="I19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>98</v>
       </c>
@@ -1427,7 +1486,7 @@
         <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1444,8 +1503,11 @@
       <c r="I20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>89</v>
       </c>
@@ -1471,10 +1533,13 @@
         <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+        <v>161</v>
+      </c>
+      <c r="J21">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>53</v>
       </c>
@@ -1485,7 +1550,7 @@
         <v>118</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E22">
         <v>103</v>
@@ -1502,8 +1567,11 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>93</v>
       </c>
@@ -1526,13 +1594,16 @@
         <v>1269143</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>48</v>
       </c>
@@ -1560,8 +1631,11 @@
       <c r="I24" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>98</v>
       </c>
@@ -1589,8 +1663,11 @@
       <c r="I25" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>89</v>
       </c>
@@ -1618,8 +1695,11 @@
       <c r="I26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>80</v>
       </c>
@@ -1630,7 +1710,7 @@
         <v>246</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E27">
         <v>63</v>
@@ -1642,13 +1722,16 @@
         <v>483245</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I27" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>91</v>
       </c>
@@ -1676,8 +1759,11 @@
       <c r="I28" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>84</v>
       </c>
@@ -1705,8 +1791,11 @@
       <c r="I29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>76</v>
       </c>
@@ -1734,8 +1823,11 @@
       <c r="I30" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
@@ -1763,8 +1855,11 @@
       <c r="I31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>19</v>
       </c>
@@ -1792,8 +1887,11 @@
       <c r="I32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>56</v>
       </c>
@@ -1804,7 +1902,7 @@
         <v>5</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E33">
         <v>4</v>
@@ -1821,8 +1919,11 @@
       <c r="I33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>91</v>
       </c>
@@ -1850,8 +1951,11 @@
       <c r="I34" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>83</v>
       </c>
@@ -1879,8 +1983,11 @@
       <c r="I35" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>96</v>
       </c>
@@ -1908,8 +2015,11 @@
       <c r="I36" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>99</v>
       </c>
@@ -1937,8 +2047,11 @@
       <c r="I37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>79</v>
       </c>
@@ -1966,8 +2079,11 @@
       <c r="I38" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>93</v>
       </c>
@@ -1995,8 +2111,11 @@
       <c r="I39" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>94</v>
       </c>
@@ -2024,8 +2143,11 @@
       <c r="I40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>93</v>
       </c>
@@ -2053,8 +2175,11 @@
       <c r="I41" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>49</v>
       </c>
@@ -2082,8 +2207,11 @@
       <c r="I42" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>73</v>
       </c>
@@ -2111,8 +2239,11 @@
       <c r="I43" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>74</v>
       </c>
@@ -2140,8 +2271,11 @@
       <c r="I44" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>95</v>
       </c>
@@ -2169,8 +2303,11 @@
       <c r="I45" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>84</v>
       </c>
@@ -2181,7 +2318,7 @@
         <v>266</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E46">
         <v>52</v>
@@ -2198,8 +2335,11 @@
       <c r="I46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>98</v>
       </c>
@@ -2227,8 +2367,11 @@
       <c r="I47" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>81</v>
       </c>
@@ -2256,8 +2399,11 @@
       <c r="I48" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>35</v>
       </c>
@@ -2285,8 +2431,11 @@
       <c r="I49" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>72</v>
       </c>
@@ -2314,8 +2463,11 @@
       <c r="I50" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>95</v>
       </c>
@@ -2343,8 +2495,11 @@
       <c r="I51" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>97</v>
       </c>
@@ -2355,7 +2510,7 @@
         <v>262</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E52">
         <v>7</v>
@@ -2372,8 +2527,11 @@
       <c r="I52" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>68</v>
       </c>
@@ -2384,7 +2542,7 @@
         <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E53">
         <v>89</v>
@@ -2401,8 +2559,11 @@
       <c r="I53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>63</v>
       </c>
@@ -2430,8 +2591,11 @@
       <c r="I54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>56</v>
       </c>
@@ -2459,8 +2623,11 @@
       <c r="I55" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>92</v>
       </c>
@@ -2488,8 +2655,11 @@
       <c r="I56" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>51</v>
       </c>
@@ -2500,7 +2670,7 @@
         <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E57">
         <v>131</v>
@@ -2517,8 +2687,11 @@
       <c r="I57" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>91</v>
       </c>
@@ -2546,8 +2719,11 @@
       <c r="I58" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>27</v>
       </c>
@@ -2575,8 +2751,11 @@
       <c r="I59" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>73</v>
       </c>
@@ -2604,8 +2783,11 @@
       <c r="I60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>85</v>
       </c>
@@ -2633,8 +2815,11 @@
       <c r="I61" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>27</v>
       </c>
@@ -2662,8 +2847,11 @@
       <c r="I62" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>83</v>
       </c>
@@ -2691,8 +2879,11 @@
       <c r="I63" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>41</v>
       </c>
@@ -2720,8 +2911,11 @@
       <c r="I64" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>57</v>
       </c>
@@ -2749,8 +2943,11 @@
       <c r="I65" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>93</v>
       </c>
@@ -2778,8 +2975,11 @@
       <c r="I66" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>81</v>
       </c>
@@ -2807,8 +3007,11 @@
       <c r="I67" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>78</v>
       </c>
@@ -2836,8 +3039,11 @@
       <c r="I68" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>91</v>
       </c>
@@ -2865,8 +3071,11 @@
       <c r="I69" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>92</v>
       </c>
@@ -2894,8 +3103,11 @@
       <c r="I70" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>73</v>
       </c>
@@ -2923,8 +3135,11 @@
       <c r="I71" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>66</v>
       </c>
@@ -2952,8 +3167,11 @@
       <c r="I72" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>44</v>
       </c>
@@ -2981,8 +3199,11 @@
       <c r="I73" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>81</v>
       </c>
@@ -3010,8 +3231,11 @@
       <c r="I74" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>64</v>
       </c>
@@ -3022,7 +3246,7 @@
         <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E75">
         <v>25</v>
@@ -3039,8 +3263,11 @@
       <c r="I75" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>79</v>
       </c>
@@ -3068,8 +3295,11 @@
       <c r="I76" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>92</v>
       </c>
@@ -3097,8 +3327,11 @@
       <c r="I77" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>65</v>
       </c>
@@ -3126,8 +3359,11 @@
       <c r="I78" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>83</v>
       </c>
@@ -3155,8 +3391,11 @@
       <c r="I79" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>48</v>
       </c>
@@ -3184,8 +3423,11 @@
       <c r="I80" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>28</v>
       </c>
@@ -3213,8 +3455,11 @@
       <c r="I81" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>78</v>
       </c>
@@ -3242,8 +3487,11 @@
       <c r="I82" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>85</v>
       </c>
@@ -3271,8 +3519,11 @@
       <c r="I83" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>98</v>
       </c>
@@ -3300,8 +3551,11 @@
       <c r="I84" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>64</v>
       </c>
@@ -3312,7 +3566,7 @@
         <v>206</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E85">
         <v>114</v>
@@ -3324,13 +3578,16 @@
         <v>26650</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I85" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>86</v>
       </c>
@@ -3358,8 +3615,11 @@
       <c r="I86" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>49</v>
       </c>
@@ -3387,8 +3647,11 @@
       <c r="I87" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>77</v>
       </c>
@@ -3416,8 +3679,11 @@
       <c r="I88" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>76</v>
       </c>
@@ -3445,8 +3711,11 @@
       <c r="I89" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>56</v>
       </c>
@@ -3457,7 +3726,7 @@
         <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E90">
         <v>140</v>
@@ -3474,8 +3743,11 @@
       <c r="I90" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>95</v>
       </c>
@@ -3503,8 +3775,11 @@
       <c r="I91" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>88</v>
       </c>
@@ -3532,8 +3807,11 @@
       <c r="I92" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>96</v>
       </c>
@@ -3544,7 +3822,7 @@
         <v>185</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -3561,8 +3839,11 @@
       <c r="I93" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>64</v>
       </c>
@@ -3590,8 +3871,11 @@
       <c r="I94" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>70</v>
       </c>
@@ -3602,7 +3886,7 @@
         <v>192</v>
       </c>
       <c r="D95" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E95">
         <v>81</v>
@@ -3619,8 +3903,11 @@
       <c r="I95" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>73</v>
       </c>
@@ -3648,8 +3935,11 @@
       <c r="I96" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>25</v>
       </c>
@@ -3677,8 +3967,11 @@
       <c r="I97" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>39</v>
       </c>
@@ -3706,8 +3999,11 @@
       <c r="I98" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>78</v>
       </c>
@@ -3730,13 +4026,16 @@
         <v>942727</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I99" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -3747,7 +4046,7 @@
         <v>335</v>
       </c>
       <c r="D100" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E100">
         <v>15</v>
@@ -3759,13 +4058,16 @@
         <v>302251</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I100" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>43</v>
       </c>
@@ -3792,6 +4094,9 @@
       </c>
       <c r="I101" t="s">
         <v>146</v>
+      </c>
+      <c r="J101">
+        <v>2016</v>
       </c>
     </row>
   </sheetData>

--- a/wangdian_subfolder/tomato_final_version.xlsx
+++ b/wangdian_subfolder/tomato_final_version.xlsx
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/wangdian_subfolder/tomato_final_version.xlsx
+++ b/wangdian_subfolder/tomato_final_version.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MinnaWu/Documents/GitHub/Group_7-Project_2/wangdian_subfolder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MinnaWu/Google Drive/UofTSCS Data Analytics Bootcamp/13-Project_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CCD0ED-13F4-454F-AFD4-0015BFD8EC66}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C6F367-80F7-054E-BD8E-53A35A921B80}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="740" yWindow="1240" windowWidth="24560" windowHeight="12700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>ET: The Extra-Terrestrial</t>
   </si>
   <si>
-    <t>Pirates of the Caribbean: Dead ManÃ¢Â€Â™s Chest</t>
-  </si>
-  <si>
     <t>8.4/10</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
     <t>Iron Man</t>
   </si>
   <si>
-    <t>Harry Potter and the Sorcerer's Stone</t>
-  </si>
-  <si>
     <t>Indiana Jones and the Kingdom of the Crystal Skull</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Star Wars Ep. II: Attack of the Clones</t>
   </si>
   <si>
-    <t>Pirates of the Caribbean: At World's End</t>
-  </si>
-  <si>
     <t>Star Wars Ep. VI: Return of the Jedi</t>
   </si>
   <si>
@@ -529,6 +520,15 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: Dead Manâs Chest</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean: At Worldâs End</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Sorcererâs Stone</t>
   </si>
 </sst>
 </file>
@@ -860,45 +860,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F1" t="s">
         <v>161</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>162</v>
       </c>
-      <c r="E1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" t="s">
-        <v>165</v>
-      </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1048,7 +1048,7 @@
         <v>163</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G6">
         <v>21</v>
@@ -1112,7 +1112,7 @@
         <v>313</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8">
         <v>27</v>
@@ -1284,7 +1284,7 @@
         <v>85666</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>119</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G15">
         <v>101</v>
@@ -1412,7 +1412,7 @@
         <v>286305</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1432,7 +1432,7 @@
         <v>304</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G18">
         <v>47</v>
@@ -1496,7 +1496,7 @@
         <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B21">
         <v>2013</v>
@@ -1545,7 +1545,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <v>2006</v>
@@ -1560,7 +1560,7 @@
         <v>118</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G22">
         <v>103</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23">
         <v>1994</v>
@@ -1592,7 +1592,7 @@
         <v>114</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>9</v>
@@ -1604,12 +1604,12 @@
         <v>1269143</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>2018</v>
@@ -1624,7 +1624,7 @@
         <v>179</v>
       </c>
       <c r="F24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>196</v>
@@ -1636,12 +1636,12 @@
         <v>28284</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>2010</v>
@@ -1656,7 +1656,7 @@
         <v>294</v>
       </c>
       <c r="F25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>5</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>2017</v>
@@ -1688,7 +1688,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1700,12 +1700,12 @@
         <v>8508</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27">
         <v>2013</v>
@@ -1720,7 +1720,7 @@
         <v>246</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G27">
         <v>63</v>
@@ -1732,12 +1732,12 @@
         <v>483245</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <v>2016</v>
@@ -1769,7 +1769,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29">
         <v>2012</v>
@@ -1784,7 +1784,7 @@
         <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G29">
         <v>48</v>
@@ -1801,7 +1801,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30">
         <v>2017</v>
@@ -1816,7 +1816,7 @@
         <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30">
         <v>51</v>
@@ -1833,7 +1833,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B31">
         <v>2002</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B32">
         <v>2009</v>
@@ -1880,7 +1880,7 @@
         <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32">
         <v>200</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33">
         <v>2013</v>
@@ -1912,7 +1912,7 @@
         <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G33">
         <v>4</v>
@@ -1924,12 +1924,12 @@
         <v>54</v>
       </c>
       <c r="J33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34">
         <v>1993</v>
@@ -1944,7 +1944,7 @@
         <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34">
         <v>11</v>
@@ -1956,12 +1956,12 @@
         <v>1069586</v>
       </c>
       <c r="J34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35">
         <v>2017</v>
@@ -1976,7 +1976,7 @@
         <v>305</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35">
         <v>60</v>
@@ -1993,7 +1993,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B36">
         <v>2011</v>
@@ -2008,7 +2008,7 @@
         <v>307</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36">
         <v>13</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B37">
         <v>2003</v>
@@ -2052,12 +2052,12 @@
         <v>33356664</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B38">
         <v>2005</v>
@@ -2072,7 +2072,7 @@
         <v>231</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>60</v>
@@ -2084,12 +2084,12 @@
         <v>33682429</v>
       </c>
       <c r="J38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B39">
         <v>2003</v>
@@ -2116,7 +2116,7 @@
         <v>34679279</v>
       </c>
       <c r="J39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
@@ -2136,7 +2136,7 @@
         <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G40">
         <v>7</v>
@@ -2148,12 +2148,12 @@
         <v>759653</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>2004</v>
@@ -2168,7 +2168,7 @@
         <v>251</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G41">
         <v>18</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>2004</v>
@@ -2200,7 +2200,7 @@
         <v>134</v>
       </c>
       <c r="F42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G42">
         <v>141</v>
@@ -2212,12 +2212,12 @@
         <v>369139</v>
       </c>
       <c r="J42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B43">
         <v>2016</v>
@@ -2232,7 +2232,7 @@
         <v>159</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G43">
         <v>58</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>2013</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B45">
         <v>2016</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B46">
         <v>2016</v>
@@ -2328,7 +2328,7 @@
         <v>266</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G46">
         <v>52</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B47">
         <v>2015</v>
@@ -2360,7 +2360,7 @@
         <v>339</v>
       </c>
       <c r="F47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47">
         <v>8</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B48">
         <v>2015</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B49">
         <v>2011</v>
@@ -2424,7 +2424,7 @@
         <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G49">
         <v>165</v>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B50">
         <v>2014</v>
@@ -2456,7 +2456,7 @@
         <v>199</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G50">
         <v>78</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51">
         <v>2002</v>
@@ -2488,7 +2488,7 @@
         <v>238</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G51">
         <v>12</v>
@@ -2505,7 +2505,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B52">
         <v>2016</v>
@@ -2520,7 +2520,7 @@
         <v>262</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G52">
         <v>7</v>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B53">
         <v>2014</v>
@@ -2552,7 +2552,7 @@
         <v>189</v>
       </c>
       <c r="F53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G53">
         <v>89</v>
@@ -2564,12 +2564,12 @@
         <v>246558</v>
       </c>
       <c r="J53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54">
         <v>2007</v>
@@ -2584,7 +2584,7 @@
         <v>160</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G54">
         <v>94</v>
@@ -2601,7 +2601,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55">
         <v>2015</v>
@@ -2616,7 +2616,7 @@
         <v>117</v>
       </c>
       <c r="F55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G55">
         <v>92</v>
@@ -2633,7 +2633,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B56">
         <v>2017</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B57">
         <v>2010</v>
@@ -2680,7 +2680,7 @@
         <v>139</v>
       </c>
       <c r="F57" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G57">
         <v>131</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58">
         <v>2014</v>
@@ -2729,7 +2729,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59">
         <v>2016</v>
@@ -2744,7 +2744,7 @@
         <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G59">
         <v>291</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60">
         <v>1994</v>
@@ -2776,7 +2776,7 @@
         <v>66</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G60">
         <v>25</v>
@@ -2793,7 +2793,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61">
         <v>2017</v>
@@ -2808,7 +2808,7 @@
         <v>290</v>
       </c>
       <c r="F61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G61">
         <v>50</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62">
         <v>2016</v>
@@ -2840,7 +2840,7 @@
         <v>96</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G62">
         <v>254</v>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63">
         <v>2018</v>
@@ -2872,7 +2872,7 @@
         <v>297</v>
       </c>
       <c r="F63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G63">
         <v>61</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64">
         <v>2007</v>
@@ -2904,7 +2904,7 @@
         <v>86</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>123</v>
@@ -2916,12 +2916,12 @@
         <v>2218529</v>
       </c>
       <c r="J64" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65">
         <v>2007</v>
@@ -2936,7 +2936,7 @@
         <v>129</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G65">
         <v>96</v>
@@ -2953,7 +2953,7 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66">
         <v>2008</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="B67">
         <v>2001</v>
@@ -3000,7 +3000,7 @@
         <v>157</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G67">
         <v>38</v>
@@ -3012,12 +3012,12 @@
         <v>1156510</v>
       </c>
       <c r="J67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B68">
         <v>2008</v>
@@ -3032,7 +3032,7 @@
         <v>208</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G68">
         <v>60</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B69">
         <v>2001</v>
@@ -3081,7 +3081,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B70">
         <v>2017</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>2010</v>
@@ -3128,7 +3128,7 @@
         <v>209</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G71">
         <v>77</v>
@@ -3140,12 +3140,12 @@
         <v>479041</v>
       </c>
       <c r="J71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B72">
         <v>2002</v>
@@ -3160,7 +3160,7 @@
         <v>163</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G72">
         <v>85</v>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B73">
         <v>2007</v>
@@ -3192,7 +3192,7 @@
         <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G73">
         <v>123</v>
@@ -3204,12 +3204,12 @@
         <v>2738380</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B74">
         <v>1983</v>
@@ -3224,7 +3224,7 @@
         <v>71</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G74">
         <v>17</v>
@@ -3241,7 +3241,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B75">
         <v>1996</v>
@@ -3256,7 +3256,7 @@
         <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G75">
         <v>25</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B76">
         <v>2003</v>
@@ -3288,7 +3288,7 @@
         <v>170</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G76">
         <v>45</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>2012</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B78">
         <v>2012</v>
@@ -3352,7 +3352,7 @@
         <v>187</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G78">
         <v>102</v>
@@ -3369,7 +3369,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B79">
         <v>2009</v>
@@ -3384,7 +3384,7 @@
         <v>227</v>
       </c>
       <c r="F79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G79">
         <v>45</v>
@@ -3396,12 +3396,12 @@
         <v>1558665</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B80">
         <v>2010</v>
@@ -3416,7 +3416,7 @@
         <v>116</v>
       </c>
       <c r="F80" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G80">
         <v>125</v>
@@ -3428,12 +3428,12 @@
         <v>334002</v>
       </c>
       <c r="J80" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B81">
         <v>2009</v>
@@ -3448,7 +3448,7 @@
         <v>63</v>
       </c>
       <c r="F81" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G81">
         <v>162</v>
@@ -3460,12 +3460,12 @@
         <v>578226</v>
       </c>
       <c r="J81" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B82">
         <v>2010</v>
@@ -3480,7 +3480,7 @@
         <v>210</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G82">
         <v>60</v>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B83">
         <v>1999</v>
@@ -3524,15 +3524,15 @@
         <v>1036091</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B84">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C84">
         <v>98</v>
@@ -3556,12 +3556,12 @@
         <v>1203115</v>
       </c>
       <c r="J84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B85">
         <v>2018</v>
@@ -3576,7 +3576,7 @@
         <v>206</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G85">
         <v>114</v>
@@ -3588,12 +3588,12 @@
         <v>26650</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B86">
         <v>2010</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B87">
         <v>2012</v>
@@ -3640,7 +3640,7 @@
         <v>92</v>
       </c>
       <c r="F87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G87">
         <v>97</v>
@@ -3652,12 +3652,12 @@
         <v>293020</v>
       </c>
       <c r="J87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B88">
         <v>2007</v>
@@ -3672,7 +3672,7 @@
         <v>191</v>
       </c>
       <c r="F88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G88">
         <v>56</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B89">
         <v>2005</v>
@@ -3704,7 +3704,7 @@
         <v>162</v>
       </c>
       <c r="F89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G89">
         <v>52</v>
@@ -3716,12 +3716,12 @@
         <v>34105040</v>
       </c>
       <c r="J89" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B90">
         <v>2013</v>
@@ -3736,7 +3736,7 @@
         <v>179</v>
       </c>
       <c r="F90" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G90">
         <v>140</v>
@@ -3753,7 +3753,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B91">
         <v>1980</v>
@@ -3768,7 +3768,7 @@
         <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>5</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B92">
         <v>2005</v>
@@ -3812,12 +3812,12 @@
         <v>34153241</v>
       </c>
       <c r="J92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B93">
         <v>2001</v>
@@ -3832,7 +3832,7 @@
         <v>185</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G93">
         <v>8</v>
@@ -3844,12 +3844,12 @@
         <v>1254492</v>
       </c>
       <c r="J93" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B94">
         <v>1990</v>
@@ -3864,7 +3864,7 @@
         <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G94">
         <v>19</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B95">
         <v>2015</v>
@@ -3896,7 +3896,7 @@
         <v>192</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G95">
         <v>81</v>
@@ -3908,12 +3908,12 @@
         <v>200837</v>
       </c>
       <c r="J95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B96">
         <v>2003</v>
@@ -3928,7 +3928,7 @@
         <v>179</v>
       </c>
       <c r="F96" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G96">
         <v>66</v>
@@ -3940,12 +3940,12 @@
         <v>942148</v>
       </c>
       <c r="J96" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B97">
         <v>2011</v>
@@ -3960,7 +3960,7 @@
         <v>50</v>
       </c>
       <c r="F97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G97">
         <v>152</v>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B98">
         <v>2004</v>
@@ -3992,7 +3992,7 @@
         <v>62</v>
       </c>
       <c r="F98" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G98">
         <v>98</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B99">
         <v>2009</v>
@@ -4024,7 +4024,7 @@
         <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G99">
         <v>51</v>
@@ -4036,12 +4036,12 @@
         <v>942727</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B100">
         <v>2013</v>
@@ -4056,7 +4056,7 @@
         <v>335</v>
       </c>
       <c r="F100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G100">
         <v>15</v>
@@ -4068,12 +4068,12 @@
         <v>302251</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B101">
         <v>2016</v>
@@ -4088,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G101">
         <v>4</v>
@@ -4105,5 +4105,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>